--- a/Question's450.xlsx
+++ b/Question's450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Practice\DSA Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC84A299-EACD-433F-921B-A546F3A52291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36C5472-72F9-414B-AC7C-20AD41DE9287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1873,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2189,7 +2189,7 @@
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="4"/>
@@ -2198,7 +2198,7 @@
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="4"/>
@@ -2207,7 +2207,7 @@
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="4"/>

--- a/Question's450.xlsx
+++ b/Question's450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Practice\DSA Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36C5472-72F9-414B-AC7C-20AD41DE9287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B57B7F-7547-4153-8DFB-90B7F4DFAC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="465">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1417,6 +1417,9 @@
   </si>
   <si>
     <t>check largestrect matrix ques</t>
+  </si>
+  <si>
+    <t>Only check that graph is Acyclic</t>
   </si>
 </sst>
 </file>
@@ -1873,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -5042,7 +5045,7 @@
       <c r="A367" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B367" s="6" t="s">
+      <c r="B367" s="11" t="s">
         <v>353</v>
       </c>
       <c r="C367" s="4"/>
@@ -5051,7 +5054,7 @@
       <c r="A368" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B368" s="6" t="s">
+      <c r="B368" s="11" t="s">
         <v>354</v>
       </c>
       <c r="C368" s="4"/>
@@ -5060,7 +5063,7 @@
       <c r="A369" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B369" s="6" t="s">
+      <c r="B369" s="11" t="s">
         <v>355</v>
       </c>
       <c r="C369" s="4"/>
@@ -5069,10 +5072,12 @@
       <c r="A370" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B370" s="6" t="s">
+      <c r="B370" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C370" s="4"/>
+      <c r="C370" s="4" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">

--- a/Question's450.xlsx
+++ b/Question's450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Practice\DSA Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B57B7F-7547-4153-8DFB-90B7F4DFAC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DD5F1D-0EC1-4C56-8BFC-C1CD671E1A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1489,7 +1489,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1508,6 +1508,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1522,7 +1528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1548,6 +1554,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1876,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2405,7 +2412,7 @@
       <c r="A63" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C63" s="4"/>
@@ -2414,7 +2421,7 @@
       <c r="A64" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C64" s="4"/>
@@ -2423,7 +2430,7 @@
       <c r="A65" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C65" s="4"/>
@@ -2432,7 +2439,7 @@
       <c r="A66" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C66" s="4"/>
@@ -2441,7 +2448,7 @@
       <c r="A67" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C67" s="4"/>
@@ -2450,7 +2457,7 @@
       <c r="A68" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C68" s="4"/>
@@ -2459,7 +2466,7 @@
       <c r="A69" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C69" s="4"/>
@@ -2468,7 +2475,7 @@
       <c r="A70" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C70" s="4"/>
@@ -2477,7 +2484,7 @@
       <c r="A71" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C71" s="4"/>

--- a/Question's450.xlsx
+++ b/Question's450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Practice\DSA Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DD5F1D-0EC1-4C56-8BFC-C1CD671E1A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C9E522-49DC-49CF-B56A-E32DE37E31B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1883,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="B379" sqref="B379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -5162,7 +5162,7 @@
       <c r="A379" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B379" s="6" t="s">
+      <c r="B379" s="11" t="s">
         <v>365</v>
       </c>
       <c r="C379" s="4"/>

--- a/Question's450.xlsx
+++ b/Question's450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Practice\DSA Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C9E522-49DC-49CF-B56A-E32DE37E31B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7D2CE8-65D4-46F7-8E6B-72AEF7F54D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1883,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="B379" sqref="B379"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176:B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3388,7 +3388,7 @@
       <c r="A176" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C176" s="4"/>
@@ -3397,7 +3397,7 @@
       <c r="A177" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C177" s="4"/>
@@ -3406,7 +3406,7 @@
       <c r="A178" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C178" s="4"/>
@@ -3415,7 +3415,7 @@
       <c r="A179" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="11" t="s">
         <v>173</v>
       </c>
       <c r="C179" s="4"/>
@@ -3424,7 +3424,7 @@
       <c r="A180" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C180" s="4"/>
